--- a/TC_Eassignment_Employer_FT.xlsx
+++ b/TC_Eassignment_Employer_FT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="607">
   <si>
     <t>Project Name</t>
   </si>
@@ -1966,6 +1966,9 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,Godaddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional testing</t>
   </si>
 </sst>
 </file>
@@ -7592,7 +7595,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7666,7 +7669,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>606</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>

--- a/TC_Eassignment_Employer_FT.xlsx
+++ b/TC_Eassignment_Employer_FT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="607">
   <si>
     <t>Project Name</t>
   </si>
@@ -1966,6 +1966,9 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,Godaddy</t>
+  </si>
+  <si>
+    <t>Functional testing</t>
   </si>
 </sst>
 </file>
@@ -7592,7 +7595,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7666,7 +7669,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>606</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
